--- a/arquivos/testes com arquivos modelo/modelo-tabela-folha-ponto-teste.xlsx
+++ b/arquivos/testes com arquivos modelo/modelo-tabela-folha-ponto-teste.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>DATA ATUAL</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>MATRÍCULA:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>FOLHA DE PONTO - CASA DO AUTISTA</t>
@@ -117,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,13 +168,6 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFF2CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,53 +386,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,12 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,22 +473,22 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>540726</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482109</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>6596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>426426</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>367810</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
+      <xdr:rowOff>978146</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5" descr="https://lh7-us.googleusercontent.com/6eE7kxG0pRAttcy5n3H8RgV7JKfGtoC6V0IWYkZaCjYljWwGlVGf4PCDWPcmPJRzLcTifXSYn2VcFppfs1YTNEdeYqfCYSVBLlmaAIje1UEGACFCP16Q3EKnZiD0_p3RWYH8CJHodf_MC8cP0rDUZA"/>
+        <xdr:cNvPr id="6" name="ECOS" descr="https://lh7-us.googleusercontent.com/6eE7kxG0pRAttcy5n3H8RgV7JKfGtoC6V0IWYkZaCjYljWwGlVGf4PCDWPcmPJRzLcTifXSYn2VcFppfs1YTNEdeYqfCYSVBLlmaAIje1UEGACFCP16Q3EKnZiD0_p3RWYH8CJHodf_MC8cP0rDUZA"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -520,7 +508,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1361341" y="211748"/>
+          <a:off x="1559167" y="109173"/>
           <a:ext cx="3241431" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -741,112 +729,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O1002"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I652"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" customWidth="1"/>
-    <col min="10" max="20" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B2" s="24"/>
+    <row r="1" spans="3:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="25"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="3:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
         <v>45292</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
@@ -860,67 +848,67 @@
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
         <v>45293</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
         <v>45294</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>45295</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>45296</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>45297</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -935,15 +923,15 @@
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="I13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>45298</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -958,80 +946,80 @@
       <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>45299</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <v>45300</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <v>45301</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
         <v>45302</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
         <v>45303</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
         <v>45304</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1046,15 +1034,15 @@
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
         <v>45305</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1069,80 +1057,80 @@
       <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
         <v>45306</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
         <v>45307</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
         <v>45308</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
         <v>45309</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
         <v>45310</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
         <v>45311</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1157,15 +1145,15 @@
       <c r="H27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
+      <c r="I27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
         <v>45312</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1180,80 +1168,80 @@
       <c r="H28" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
+      <c r="I28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
         <v>45313</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
         <v>45314</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
         <v>45315</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
         <v>45316</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
         <v>45317</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
         <v>45318</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1268,15 +1256,15 @@
       <c r="H34" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
+      <c r="I34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
         <v>45319</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1291,135 +1279,134 @@
       <c r="H35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
+      <c r="I35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
         <v>45320</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="M36" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
         <v>45321</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
         <v>45322</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="21" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="3:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="28" t="s">
+      <c r="D40" s="18"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="31"/>
-    </row>
-    <row r="42" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="26"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="3:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="27"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="23"/>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2019,368 +2006,18 @@
     <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:I41"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>